--- a/TekPyramidOSAFramework/testdata/testScriptData.xlsx
+++ b/TekPyramidOSAFramework/testdata/testScriptData.xlsx
@@ -5,21 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium_Workspace\ComcastCRMGUIFramework\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium_Workspace\TekPyramidOSAFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055B6CF0-A104-48E3-8BE8-E1929504277D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4601FB7-C35C-46C9-80A4-65D99D187404}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="4836" activeTab="3" xr2:uid="{25670DA0-E5A1-4797-A5DE-AD0D406DC683}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="4836" activeTab="7" xr2:uid="{25670DA0-E5A1-4797-A5DE-AD0D406DC683}"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
-    <sheet name="contact" sheetId="3" r:id="rId2"/>
-    <sheet name="test" sheetId="2" r:id="rId3"/>
-    <sheet name="product" sheetId="4" r:id="rId4"/>
-    <sheet name="vendors" sheetId="5" r:id="rId5"/>
-    <sheet name="Products" sheetId="6" r:id="rId6"/>
-    <sheet name="food" sheetId="7" r:id="rId7"/>
+    <sheet name="quantity" sheetId="8" r:id="rId2"/>
+    <sheet name="contact" sheetId="3" r:id="rId3"/>
+    <sheet name="test" sheetId="2" r:id="rId4"/>
+    <sheet name="product" sheetId="4" r:id="rId5"/>
+    <sheet name="vendors" sheetId="5" r:id="rId6"/>
+    <sheet name="Products" sheetId="6" r:id="rId7"/>
+    <sheet name="prod" sheetId="10" r:id="rId8"/>
+    <sheet name="food" sheetId="7" r:id="rId9"/>
+    <sheet name="IntegrationTestCase" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="275">
   <si>
     <t>TC_ID</t>
   </si>
@@ -824,6 +827,39 @@
   </si>
   <si>
     <t>Redmi Note 14 5G (Mystique White, 6GB RAM 128GB Storage) | Global Debut MTK Dimensity 7025 Ultra | 2100 nits Segment Brightest 120Hz AMOLED | 50MP Sony LYT 600 OIS+EIS Triple Camera</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>500_</t>
+  </si>
+  <si>
+    <t>SAMSUNG Galaxy On5</t>
+  </si>
+  <si>
+    <t>UserInfoOnHomePage</t>
+  </si>
+  <si>
+    <t>Oracle_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome -anuj </t>
+  </si>
+  <si>
+    <t>NewName</t>
+  </si>
+  <si>
+    <t>ContactNo</t>
+  </si>
+  <si>
+    <t>898898898</t>
+  </si>
+  <si>
+    <t>Asus Strix G16</t>
+  </si>
+  <si>
+    <t>MacbookPro</t>
   </si>
 </sst>
 </file>
@@ -909,7 +945,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -932,6 +968,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1250,7 +1290,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,12 +1439,97 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A250A563-CC53-4A1F-8B4A-56D14139610C}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196D66DC-26EE-4F94-946B-E51D2FD6DA4C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92ACE999-49D2-45D5-9D30-799D87E4C369}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1528,12 +1653,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B44646-C939-42D3-8459-AC82272CFB35}">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:B200"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3150,17 +3275,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFA06CC-AA8A-4565-BCB9-C8EED4AC173E}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="134.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3190,7 +3315,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>250</v>
@@ -3218,7 +3343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77505C74-A0D8-425D-A647-6BD799E42C18}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -3274,21 +3399,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D948CB01-DD35-469D-A6F1-775384089695}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3298,8 +3424,11 @@
       <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>241</v>
       </c>
@@ -3309,13 +3438,17 @@
       <c r="C2" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -3325,8 +3458,9 @@
       <c r="C4" s="8" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>245</v>
       </c>
@@ -3336,13 +3470,55 @@
       <c r="C5" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E478A8D8-D75E-4F16-933E-2E275FA2BD52}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3487D0-26EC-47DA-A8FA-A3D373A0E5AA}">
   <dimension ref="A1:D15"/>
   <sheetViews>

--- a/TekPyramidOSAFramework/testdata/testScriptData.xlsx
+++ b/TekPyramidOSAFramework/testdata/testScriptData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium_Workspace\TekPyramidOSAFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4601FB7-C35C-46C9-80A4-65D99D187404}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5652A4CE-D980-4E8A-8AC1-CBAAB762AACC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="4836" activeTab="7" xr2:uid="{25670DA0-E5A1-4797-A5DE-AD0D406DC683}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15768" windowHeight="4836" activeTab="9" xr2:uid="{25670DA0-E5A1-4797-A5DE-AD0D406DC683}"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="276">
   <si>
     <t>TC_ID</t>
   </si>
@@ -860,6 +860,9 @@
   </si>
   <si>
     <t>MacbookPro</t>
+  </si>
+  <si>
+    <t>Welcome</t>
   </si>
 </sst>
 </file>
@@ -1443,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A250A563-CC53-4A1F-8B4A-56D14139610C}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1477,7 +1480,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>269</v>
@@ -3481,7 +3484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E478A8D8-D75E-4F16-933E-2E275FA2BD52}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
